--- a/src/main/resources/出勤模板.xlsx
+++ b/src/main/resources/出勤模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\demo2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DDB5E5-1DE4-4F7F-A2F5-C650A9B50D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633439BF-5637-4034-8FDF-37062A354F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,8 +113,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="[$-804]aaa;@"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -264,9 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -282,6 +280,12 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -303,10 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,7 +593,7 @@
   <dimension ref="A5:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -607,34 +608,34 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:9">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="19.5" thickBot="1"/>
     <row r="7" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2"/>
@@ -644,17 +645,17 @@
     </row>
     <row r="9" spans="1:9" ht="19.5" thickBot="1"/>
     <row r="10" spans="1:9" ht="19.5" thickBot="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -662,16 +663,16 @@
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="20" t="s">
         <v>10</v>
       </c>
     </row>
